--- a/Ch6/Sales_Data_demo/Nov.xlsx
+++ b/Ch6/Sales_Data_demo/Nov.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\OneDrive\Desktop\Power BI\Ch6-f\Sales_Data_demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\OneDrive\Desktop\Power BI\Ch6\Sales_Data_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02306228-73C8-4C23-AE6B-A88CEDAB9B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF6B992-9625-4260-B8FA-6F043A055249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,7 +354,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -372,7 +372,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -383,7 +383,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>125</v>
@@ -394,7 +394,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>150</v>
@@ -416,7 +416,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>120</v>
